--- a/assignment_02/Test report.xlsx
+++ b/assignment_02/Test report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuel/R-SYS/assignment_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3652FC4-3F87-C242-B1B4-F89BE0488CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C53317-8201-5244-B96B-E1280E65A381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30080" yWindow="12400" windowWidth="29920" windowHeight="18560" xr2:uid="{A399A41B-CB54-2541-9887-1EBAE446E939}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="31800" xr2:uid="{A399A41B-CB54-2541-9887-1EBAE446E939}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>Test Report</t>
   </si>
@@ -743,46 +743,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>, UHF, VHF, ELT (combobox)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Survival equipment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NONE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, POLAR, DESERT, MARINE, JUNGLE (combobox)</t>
     </r>
   </si>
   <si>
@@ -1135,13 +1095,7 @@
     </r>
   </si>
   <si>
-    <t>Based on highlighting function.</t>
-  </si>
-  <si>
     <t>There's one more option 'Super Heavy'.</t>
-  </si>
-  <si>
-    <t>Instead of 'MARINE' there is option 'MARITIME'.</t>
   </si>
   <si>
     <t>1.5.3.5</t>
@@ -1219,6 +1173,49 @@
   </si>
   <si>
     <t>Panel 'New aircraft' was activated, however there's no default plane.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Survival equipment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, POLAR, DESERT, MARITIME, JUNGLE (combobox)</t>
+    </r>
+  </si>
+  <si>
+    <t>Based on highlighting function and list below except AC operator.</t>
   </si>
 </sst>
 </file>
@@ -1343,12 +1340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,28 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,77 +1375,44 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1838,82 +1775,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E830E5-E88E-C348-8754-4397190ACDF8}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="50.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="9"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="15">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1922,15 +1859,15 @@
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>116</v>
+      <c r="D6" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="15">
         <v>1.2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1939,13 +1876,13 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>115</v>
+      <c r="D7" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="15">
         <v>1.3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1954,24 +1891,24 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>115</v>
+      <c r="D8" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="15">
         <v>1.4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1980,15 +1917,15 @@
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>115</v>
+      <c r="D10" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1999,37 +1936,37 @@
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>115</v>
+      <c r="D12" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>115</v>
+      <c r="D13" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -2040,97 +1977,97 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>115</v>
+      <c r="D15" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>115</v>
+      <c r="D16" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>115</v>
+      <c r="D17" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>115</v>
+      <c r="D18" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>115</v>
+      <c r="D19" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>115</v>
+      <c r="D20" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2139,24 +2076,24 @@
       <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>115</v>
+      <c r="D21" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="15">
         <v>1.5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -2167,100 +2104,100 @@
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="10" t="s">
-        <v>115</v>
+      <c r="D24" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="10" t="s">
-        <v>115</v>
+      <c r="D25" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="10" t="s">
-        <v>115</v>
+      <c r="D26" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="10" t="s">
-        <v>115</v>
+      <c r="D27" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="10" t="s">
-        <v>115</v>
+      <c r="D28" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="10" t="s">
-        <v>115</v>
+      <c r="D29" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="10" t="s">
-        <v>116</v>
+      <c r="D30" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -2271,114 +2208,112 @@
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="B33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B37" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>23</v>
@@ -2388,269 +2323,269 @@
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="10" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
-        <v>1.6</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
-        <v>1.7</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="D49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="24">
-        <v>1.8</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="24">
-        <v>1.9</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="24">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>2</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>2</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+      <c r="B55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>115</v>
+      <c r="D57" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D21 D41:D53 D32:D39 D24:D30 D55:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="D1:D21 D24:D30 D32:D39 D41:D53 D55:D1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
